--- a/02_詳細設計書/詳細設計書.xlsx
+++ b/02_詳細設計書/詳細設計書.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
   <si>
     <t>起動方法</t>
     <rPh sb="0" eb="2">
@@ -619,10 +619,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>User</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル情報</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -774,6 +770,18 @@
   </si>
   <si>
     <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User_role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Users</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1198,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1376,7 +1384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1630,9 +1638,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1651,78 +1661,78 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="3">
         <v>100</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="3">
         <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="3">
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
@@ -1730,27 +1740,27 @@
         <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
@@ -1758,182 +1768,244 @@
         <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C14" s="3" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C15" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C16" s="3" t="s">
+      <c r="G21" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C17" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="3">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="3">
         <v>20</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C18" s="3" t="s">
+      <c r="F23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="3">
-        <v>20</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C19" s="3" t="s">
+      <c r="D24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="D25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C20" s="3" t="s">
+      <c r="G25" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C21" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C27" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C22" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="8" t="s">
+      <c r="F28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>84</v>
+      <c r="G28" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/02_詳細設計書/詳細設計書.xlsx
+++ b/02_詳細設計書/詳細設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="19395" windowHeight="7155" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="45" windowWidth="19395" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="詳細設計書" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
   <si>
     <t>起動方法</t>
     <rPh sb="0" eb="2">
@@ -782,6 +782,22 @@
   </si>
   <si>
     <t>Users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポートエラーです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポートしました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクスポートしました。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1333,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1447,8 +1463,12 @@
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
@@ -1529,7 +1549,9 @@
       <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
@@ -1539,7 +1561,9 @@
       <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
@@ -1640,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/02_詳細設計書/詳細設計書.xlsx
+++ b/02_詳細設計書/詳細設計書.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="19395" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="45" windowWidth="19395" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="詳細設計書" sheetId="1" r:id="rId1"/>
     <sheet name="処理フロー" sheetId="4" r:id="rId2"/>
     <sheet name="メッセージ定義" sheetId="5" r:id="rId3"/>
     <sheet name="ログ定義" sheetId="6" r:id="rId4"/>
-    <sheet name="テーブル定義" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>起動方法</t>
     <rPh sb="0" eb="2">
@@ -609,179 +608,6 @@
   </si>
   <si>
     <t>ログメッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル情報</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カラム名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>型</t>
-    <rPh sb="0" eb="1">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>桁数</t>
-    <rPh sb="0" eb="2">
-      <t>ケタスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォーマット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制約</t>
-    <rPh sb="0" eb="2">
-      <t>セイヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>serial</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>character</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NOTNULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WorkManage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>startTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>endTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HH:mm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>workingTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>contents</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>worktime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>uptime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deleteFlg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updateFlg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>insertFlg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0/1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yyyy/MM/dd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デフォルト書式</t>
-    <rPh sb="5" eb="7">
-      <t>ショシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User_role</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Users</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -891,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,12 +737,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1349,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1464,10 +1284,10 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
@@ -1550,7 +1370,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -1562,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -1586,7 +1406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1658,382 +1478,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="3">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="3">
-        <v>20</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="3">
-        <v>20</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C27" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C28" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/02_詳細設計書/詳細設計書.xlsx
+++ b/02_詳細設計書/詳細設計書.xlsx
@@ -2,22 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="19395" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="45" windowWidth="19395" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="詳細設計書" sheetId="1" r:id="rId1"/>
     <sheet name="処理フロー" sheetId="4" r:id="rId2"/>
-    <sheet name="メッセージ定義" sheetId="5" r:id="rId3"/>
-    <sheet name="ログ定義" sheetId="6" r:id="rId4"/>
+    <sheet name="処理フロー (2)" sheetId="7" r:id="rId3"/>
+    <sheet name="メッセージ定義" sheetId="5" r:id="rId4"/>
+    <sheet name="ログ定義" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="153">
   <si>
     <t>起動方法</t>
     <rPh sb="0" eb="2">
@@ -624,6 +625,982 @@
   </si>
   <si>
     <t>エクスポートしました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン認証</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業登録画面表示</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面の作業登録ボタンを押下すると、作業登録画面が表示される。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業登録</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業登録画面で作業の登録ができる。</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業内容と備考を入力し、作業登録ボタンで現在時刻が作業開始時間に自動で設定され、作業が登録される。</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すでに開始中の作業があった場合、現在時刻が作業終了時間に自動で設定され、作業時間が計算され、作業完了となる。</t>
+    <rPh sb="3" eb="6">
+      <t>カイシチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.3.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業終了</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業を開始せずに終了時間に現在時刻が設定される。</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>作業リスト表示</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面の作業リストボタンを押下すると、作業リストが表示される。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業挿入</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックした行の1つ上に新規行を追加する。</t>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業編集</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の項目が編集可能</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業削除</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除したい行にチェックを入れて、削除ボタンを押すとグレーアウトされる。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存ボタンを押すと、挿入、編集、削除がDBに反映される。</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業履歴編集</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日を指定してボタンを押すと、指定した年月日の作業リストが表示される。</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業リストの編集、挿入、削除、保存も可能。</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除履歴表示</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除のラジオボタンにチェックを入れると削除した作業履歴が確認できる。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業リストの編集、挿入、削除、保存は不可。</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.6</t>
+  </si>
+  <si>
+    <t>CSVエクスポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVエクスポートを押すと、現在表示されている作業リストの一覧をCSVファイル形式で出力する。</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力する場所はデフォルトはデスクトップ、ファイル保存ダイアログが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日はシート名とする。（形式：yyyy/MM/dd）</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.7</t>
+  </si>
+  <si>
+    <t>CSVインポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル選択ダイアログが表示される。</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポートできるファイル形式は、出力するCSVファイル形式と同じであること。</t>
+    <rPh sb="12" eb="14">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルをインポートすると、作業リストに表示される。</t>
+    <rPh sb="14" eb="16">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.8</t>
+  </si>
+  <si>
+    <t>画面を閉じる</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB未反映分はリセットされる。</t>
+    <rPh sb="2" eb="5">
+      <t>ミハンエイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名、パスワード入力</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USERS
+USER_ROLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ボタン押下</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NGの場合：
+エラーメッセージを表示
+OKの場合：
+確認画面を表示</t>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ新規登録ボタン押下</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録フォームに必要事項を入力し、
+確認ボタン押下</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録情報をpost
+※PRGパターン</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NGの場合：
+エラー画面表示
+OKの場合：
+メニュー画面を表示</t>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューへボタン押下</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録フォーム表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業リスト表示ボタン押下</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業リスト表示</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント(画面)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント(操作)</t>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント(処理)</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業登録画面表示</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業登録／終了ボタン押下</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録フォーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NGの場合：
+エラーメッセージを表示
+OKの場合：
+DB更新処理</t>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKの場合：
+完了画面を表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -674,7 +1651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,8 +1664,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -711,13 +1694,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,6 +1757,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,7 +2071,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -1152,20 +2214,510 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="5" width="34.75" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="8"/>
+      <c r="C8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C14" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="10"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="7"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B84" s="7"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B85" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B11"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B53" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B57" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B58" s="7"/>
+      <c r="C58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B59" s="7"/>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B62" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B66" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B71" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B77" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B78" s="7"/>
+      <c r="C78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E23"/>
   <sheetViews>
@@ -1402,11 +2954,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/02_詳細設計書/詳細設計書.xlsx
+++ b/02_詳細設計書/詳細設計書.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>起動方法</t>
     <rPh sb="0" eb="2">
@@ -731,12 +731,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作業登録</t>
+    <t>作業登録処理</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業完了処理</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業リスト表示</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業編集処理</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業フォーム表示</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -881,9 +930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>63213</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -893,7 +942,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6019800" y="514350"/>
-          <a:ext cx="19050" cy="21936075"/>
+          <a:ext cx="44163" cy="50853975"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -928,9 +977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>54788</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -940,7 +989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2752725" y="514350"/>
-          <a:ext cx="19050" cy="21936075"/>
+          <a:ext cx="45263" cy="52120800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4944,16 +4993,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4962,7 +5011,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172075" y="25727025"/>
+          <a:off x="190500" y="27070050"/>
           <a:ext cx="7248525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5358,9 +5407,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>47464</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5370,7 +5419,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1562100" y="504825"/>
-          <a:ext cx="19050" cy="21936075"/>
+          <a:ext cx="28414" cy="32718375"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5398,15 +5447,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5416,7 +5465,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5191125" y="27422475"/>
+          <a:off x="161925" y="29994225"/>
           <a:ext cx="7248525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5888,15 +5937,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5906,7 +5955,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="21174075"/>
+          <a:off x="4105275" y="23574375"/>
           <a:ext cx="1390650" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -5934,7 +5983,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ情報取得</a:t>
+            <a:t>作業登録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5943,16 +5992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5961,8 +6010,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6448425" y="21050250"/>
-          <a:ext cx="762000" cy="561975"/>
+          <a:off x="6543675" y="23250525"/>
+          <a:ext cx="762000" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -5994,7 +6043,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Users</a:t>
+            <a:t>Work</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Manage</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6004,28 +6060,78 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="334" name="直線矢印コネクタ 333"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="330" idx="3"/>
+          <a:endCxn id="331" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495925" y="23688675"/>
+          <a:ext cx="1047750" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="332" name="フローチャート : 磁気ディスク 331"/>
+        <xdr:cNvPr id="336" name="フローチャート : 判断 335"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6477000" y="21812250"/>
-          <a:ext cx="762000" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:off x="3886201" y="21774150"/>
+          <a:ext cx="1790700" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -6054,219 +6160,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>UserRole</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="333" name="直線矢印コネクタ 332"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="329" idx="6"/>
-          <a:endCxn id="330" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2305049" y="21288375"/>
-          <a:ext cx="1895476" cy="4763"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="334" name="直線矢印コネクタ 333"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="330" idx="3"/>
-          <a:endCxn id="331" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5591175" y="21288375"/>
-          <a:ext cx="857250" cy="42863"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="335" name="直線矢印コネクタ 334"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="330" idx="3"/>
-          <a:endCxn id="332" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5591175" y="21288375"/>
-          <a:ext cx="885825" cy="804863"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="336" name="フローチャート : 判断 335"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000501" y="21802725"/>
-          <a:ext cx="1790700" cy="885825"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ認証</a:t>
+            <a:t>チェック</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -6277,28 +6180,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="337" name="直線矢印コネクタ 336"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="330" idx="2"/>
-          <a:endCxn id="336" idx="0"/>
+          <a:endCxn id="180" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4895850" y="21402675"/>
-          <a:ext cx="1" cy="400050"/>
+          <a:off x="4800600" y="23802975"/>
+          <a:ext cx="1" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6326,16 +6229,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6344,7 +6247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5105400" y="22621874"/>
+          <a:off x="4848225" y="22679024"/>
           <a:ext cx="504825" cy="304801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6460,13 +6363,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6476,7 +6379,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2962275" y="23088600"/>
+          <a:off x="2962275" y="22917150"/>
           <a:ext cx="1590675" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -6504,7 +6407,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>エラーメッセージ表示</a:t>
+            <a:t>アラート表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6515,13 +6418,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6531,7 +6434,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2066925" y="23098125"/>
+          <a:off x="2066925" y="22926675"/>
           <a:ext cx="266699" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -6567,13 +6470,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6586,7 +6489,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2333624" y="23236238"/>
+          <a:off x="2333624" y="23064788"/>
           <a:ext cx="628651" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6618,13 +6521,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>157163</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6636,8 +6539,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3757613" y="22245638"/>
-          <a:ext cx="242888" cy="842962"/>
+          <a:off x="3757613" y="22236112"/>
+          <a:ext cx="128588" cy="681037"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6665,29 +6568,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="344" name="直線矢印コネクタ 343"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="336" idx="2"/>
-          <a:endCxn id="345" idx="0"/>
+          <a:endCxn id="330" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4895851" y="22688550"/>
-          <a:ext cx="14287" cy="1171575"/>
+          <a:off x="4781551" y="22698075"/>
+          <a:ext cx="19049" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6715,84 +6618,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="345" name="フローチャート: 処理 344"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="23860125"/>
-          <a:ext cx="1590675" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メニュー画面表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="346" name="直線矢印コネクタ 345"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="345" idx="1"/>
+          <a:stCxn id="183" idx="1"/>
           <a:endCxn id="347" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2343149" y="24007763"/>
-          <a:ext cx="1771651" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2219324" y="26569988"/>
+          <a:ext cx="838201" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6820,16 +6668,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6838,7 +6686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076450" y="23869650"/>
+          <a:off x="1952625" y="26431875"/>
           <a:ext cx="266699" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -6872,16 +6720,207 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="349" name="直線コネクタ 348"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="20897850"/>
+          <a:ext cx="7248525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="350" name="直線コネクタ 349"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="17316450"/>
+          <a:ext cx="7248525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="351" name="直線コネクタ 350"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="19011900"/>
+          <a:ext cx="7248525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="カギ線コネクタ 123"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="329" idx="6"/>
+          <a:endCxn id="336" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305049" y="21293138"/>
+          <a:ext cx="2476502" cy="481012"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6890,8 +6929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2505075" y="21116924"/>
-          <a:ext cx="1333500" cy="304801"/>
+          <a:off x="2505075" y="21012150"/>
+          <a:ext cx="1333500" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6928,7 +6967,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログインボタン押下</a:t>
+            <a:t>作業開始</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボタン押下</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6937,25 +6984,1574 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="フローチャート: 処理 178"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124325" y="25584150"/>
+          <a:ext cx="1390650" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仕掛処理更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="フローチャート : 判断 179"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905251" y="24041100"/>
+          <a:ext cx="1790700" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仕掛処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="テキスト ボックス 180"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4867275" y="24945974"/>
+          <a:ext cx="504825" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>あり</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="テキスト ボックス 181"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="24069674"/>
+          <a:ext cx="504825" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なし</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="フローチャート: 処理 182"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="26441400"/>
+          <a:ext cx="1247776" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面再描画</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="349" name="直線コネクタ 348"/>
+        <xdr:cNvPr id="186" name="カギ線コネクタ 185"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="180" idx="1"/>
+          <a:endCxn id="183" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3681413" y="24503062"/>
+          <a:ext cx="223838" cy="1938337"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="フローチャート : 磁気ディスク 192"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="25260300"/>
+          <a:ext cx="762000" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Work</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Manage</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="直線矢印コネクタ 193"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="179" idx="3"/>
+          <a:endCxn id="193" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="25698450"/>
+          <a:ext cx="1066800" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="カギ線コネクタ 206"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="179" idx="2"/>
+          <a:endCxn id="183" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4174332" y="25943720"/>
+          <a:ext cx="776288" cy="514349"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="フローチャート : 結合子 223"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="27422475"/>
+          <a:ext cx="266699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="フローチャート: 処理 224"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029075" y="28070175"/>
+          <a:ext cx="1390650" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>仕掛処理更新</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="フローチャート : 磁気ディスク 225"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="27746325"/>
+          <a:ext cx="762000" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Work</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Manage</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="227" name="直線矢印コネクタ 226"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="225" idx="3"/>
+          <a:endCxn id="226" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419725" y="28184475"/>
+          <a:ext cx="1047750" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="フローチャート: 処理 248"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="29184600"/>
+          <a:ext cx="1590675" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面再描画</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="フローチャート : 結合子 249"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="29194125"/>
+          <a:ext cx="266699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="251" name="直線矢印コネクタ 250"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="249" idx="1"/>
+          <a:endCxn id="250" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2257424" y="29332238"/>
+          <a:ext cx="1676401" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="256" name="カギ線コネクタ 255"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="224" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228849" y="27560588"/>
+          <a:ext cx="2476502" cy="481012"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="257" name="テキスト ボックス 256"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="27279600"/>
+          <a:ext cx="1333500" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業完了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボタン押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="261" name="直線矢印コネクタ 260"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="180" idx="2"/>
+          <a:endCxn id="179" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800601" y="24965025"/>
+          <a:ext cx="19049" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="262" name="直線矢印コネクタ 261"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="225" idx="2"/>
+          <a:endCxn id="249" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="28298775"/>
+          <a:ext cx="4763" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="276" name="フローチャート : 結合子 275"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="30346650"/>
+          <a:ext cx="266699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="277" name="フローチャート: 処理 276"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="30270451"/>
+          <a:ext cx="1390650" cy="514348"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>作業リスト</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="278" name="直線矢印コネクタ 277"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="276" idx="6"/>
+          <a:endCxn id="277" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305049" y="30484763"/>
+          <a:ext cx="1752601" cy="42862"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="279" name="カギ線コネクタ 278"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7058025" y="20231100"/>
+        <a:xfrm rot="5400000">
+          <a:off x="7846218" y="28701207"/>
+          <a:ext cx="681039" cy="2447926"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="280" name="テキスト ボックス 279"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495549" y="30260925"/>
+          <a:ext cx="1209675" cy="561974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作業</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボタン押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="フローチャート : 結合子 280"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="31327725"/>
+          <a:ext cx="266699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="282" name="直線コネクタ 281"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="30546675"/>
           <a:ext cx="7248525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6984,25 +8580,348 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="283" name="フローチャート: 処理 282"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="31356300"/>
+          <a:ext cx="1390650" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>情報取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="284" name="フローチャート : 磁気ディスク 283"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="31032450"/>
+          <a:ext cx="762000" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Work</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Manage</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="350" name="直線コネクタ 349"/>
+        <xdr:cNvPr id="285" name="直線矢印コネクタ 284"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="284" idx="2"/>
+          <a:endCxn id="283" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5467350" y="31470600"/>
+          <a:ext cx="1047750" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="286" name="カギ線コネクタ 285"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="301" idx="6"/>
+          <a:endCxn id="318" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333624" y="32551689"/>
+          <a:ext cx="2247902" cy="395286"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="287" name="直線矢印コネクタ 286"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="283" idx="1"/>
+          <a:endCxn id="281" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2305049" y="31465838"/>
+          <a:ext cx="1771651" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="290" name="直線矢印コネクタ 289"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="277" idx="2"/>
+          <a:endCxn id="283" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="30784799"/>
+          <a:ext cx="19050" cy="571501"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="292" name="直線コネクタ 291"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="17316450"/>
+          <a:off x="161925" y="32061150"/>
           <a:ext cx="7248525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7031,25 +8950,858 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="301" name="フローチャート : 結合子 300"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="32413576"/>
+          <a:ext cx="266699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="302" name="フローチャート: 処理 301"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876675" y="34604326"/>
+          <a:ext cx="1390650" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作業編集</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>フォーム</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="351" name="直線コネクタ 350"/>
+        <xdr:cNvPr id="304" name="直線矢印コネクタ 303"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="318" idx="2"/>
+          <a:endCxn id="302" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4572000" y="33870900"/>
+          <a:ext cx="9526" cy="733426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>42864</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="315" name="カギ線コネクタ 314"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="19011900"/>
+        <a:xfrm rot="5400000">
+          <a:off x="8927306" y="31734920"/>
+          <a:ext cx="233363" cy="2219326"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="316" name="テキスト ボックス 315"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="32327850"/>
+          <a:ext cx="1200150" cy="514352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>編集</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボタン押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="317" name="フローチャート : 結合子 316"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="34747201"/>
+          <a:ext cx="266699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="318" name="フローチャート : 判断 317"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686176" y="32946975"/>
+          <a:ext cx="1790700" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="テキスト ボックス 326"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="33851849"/>
+          <a:ext cx="504825" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="テキスト ボックス 327"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="33089849"/>
+          <a:ext cx="504825" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>119064</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85727</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="352" name="カギ線コネクタ 351"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="318" idx="1"/>
+          <a:endCxn id="353" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3548064" y="33408937"/>
+          <a:ext cx="138113" cy="681037"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="353" name="フローチャート: 処理 352"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="34089975"/>
+          <a:ext cx="1000126" cy="295276"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アラート表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="354" name="フローチャート : 結合子 353"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="34099500"/>
+          <a:ext cx="266699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="355" name="直線矢印コネクタ 354"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="353" idx="1"/>
+          <a:endCxn id="354" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2333624" y="34237613"/>
+          <a:ext cx="714376" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>80964</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="356" name="直線矢印コネクタ 355"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="302" idx="1"/>
+          <a:endCxn id="317" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2324099" y="34880551"/>
+          <a:ext cx="1552576" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="357" name="直線コネクタ 356"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="35480625"/>
           <a:ext cx="7248525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7415,7 +10167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -7525,10 +10277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AM123"/>
+  <dimension ref="A2:AM208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7646,6 +10398,26 @@
     <row r="123" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B159" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B176" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B188" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B208" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/02_詳細設計書/詳細設計書.xlsx
+++ b/02_詳細設計書/詳細設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="19395" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="詳細設計書" sheetId="1" r:id="rId1"/>
@@ -8333,53 +8333,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>90489</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="279" name="カギ線コネクタ 278"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7846218" y="28701207"/>
-          <a:ext cx="681039" cy="2447926"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
       <xdr:row>176</xdr:row>
@@ -8533,16 +8486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>78</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8551,7 +8504,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162675" y="30546675"/>
+          <a:off x="6362700" y="35880675"/>
           <a:ext cx="7248525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9153,16 +9106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>42864</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>23815</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9171,7 +9124,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8927306" y="31734920"/>
+          <a:off x="7327106" y="35144871"/>
           <a:ext cx="233363" cy="2219326"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -10279,7 +10232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
       <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
